--- a/docs/posts/2021-05-10-new-york-and-house-apportionment-in-2020_update/data/hist_pop_revised.xlsx
+++ b/docs/posts/2021-05-10-new-york-and-house-apportionment-in-2020_update/data/hist_pop_revised.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irm16/Dropbox/Apportion2020/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irm16/Dropbox/1G Publishing/irm_2021/_posts/2021-05-10-new-york-and-house-apportionment-in-2020_update/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C65EDE7F-4B90-9D4D-A1BD-3B15ED6C16B8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B745976-4828-D94F-8649-B632CFBB2DC0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5520" yWindow="500" windowWidth="30200" windowHeight="18580" xr2:uid="{E25B91A6-9ED6-E34F-813C-438FD3632563}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Alabama Paradox" sheetId="6" r:id="rId4"/>
     <sheet name="Huntington Hill" sheetId="7" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -298,8 +298,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -370,10 +370,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -382,12 +382,12 @@
     </xf>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="43" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -705,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF0F3B4D-986A-9D4C-80F0-0C5A0CF7470A}">
   <dimension ref="A1:AO56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40:XFD40"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52:L52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -839,7 +839,7 @@
         <v>16</v>
       </c>
       <c r="O2" s="5">
-        <f>435*L2/SUM($L$2:$L$51)</f>
+        <f t="shared" ref="O2:O33" si="0">435*L2/SUM($L$2:$L$51)</f>
         <v>1.4297202492795396</v>
       </c>
       <c r="P2" s="7">
@@ -847,19 +847,19 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <f>SQRT(P2*(P2+1))</f>
+        <f t="shared" ref="Q2:Q33" si="1">SQRT(P2*(P2+1))</f>
         <v>1.4142135623730951</v>
       </c>
       <c r="R2" t="b">
-        <f>O2&gt;Q2</f>
+        <f t="shared" ref="R2:R33" si="2">O2&gt;Q2</f>
         <v>1</v>
       </c>
       <c r="S2">
-        <f>IF(R2,P2+1,P2)</f>
+        <f t="shared" ref="S2:S33" si="3">IF(R2,P2+1,P2)</f>
         <v>2</v>
       </c>
       <c r="T2" s="7">
-        <f>O2-S2</f>
+        <f t="shared" ref="T2:T33" si="4">O2-S2</f>
         <v>-0.57027975072046044</v>
       </c>
       <c r="U2" s="8">
@@ -951,62 +951,62 @@
         <v>5657342</v>
       </c>
       <c r="M3" s="3">
-        <f t="shared" ref="M3:M54" si="0">L3/K3-1</f>
+        <f t="shared" ref="M3:M54" si="5">L3/K3-1</f>
         <v>6.4434768881850291E-2</v>
       </c>
       <c r="N3" s="3">
-        <f t="shared" ref="N3:N54" si="1">RANK(M3,$M$2:$M$51)</f>
+        <f t="shared" ref="N3:N54" si="6">RANK(M3,$M$2:$M$51)</f>
         <v>19</v>
       </c>
       <c r="O3" s="5">
-        <f>435*L3/SUM($L$2:$L$51)</f>
+        <f t="shared" si="0"/>
         <v>7.4852753801900356</v>
       </c>
       <c r="P3" s="7">
-        <f t="shared" ref="P3:P51" si="2">FLOOR(O3,1)</f>
+        <f t="shared" ref="P3:P51" si="7">FLOOR(O3,1)</f>
         <v>7</v>
       </c>
       <c r="Q3">
-        <f>SQRT(P3*(P3+1))</f>
+        <f t="shared" si="1"/>
         <v>7.4833147735478827</v>
       </c>
       <c r="R3" t="b">
-        <f>O3&gt;Q3</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="S3">
-        <f>IF(R3,P3+1,P3)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="T3" s="7">
-        <f>O3-S3</f>
+        <f t="shared" si="4"/>
         <v>-0.51472461980996442</v>
       </c>
       <c r="U3" s="8">
-        <f t="shared" ref="U3:U51" si="3">SUM($L$2:$L$51)/435</f>
+        <f t="shared" ref="U3:U51" si="8">SUM($L$2:$L$51)/435</f>
         <v>755796.10804597696</v>
       </c>
       <c r="V3" s="8" t="b">
-        <f t="shared" ref="V3:V51" si="4">O3&gt;(Q3*$V$1/U3)</f>
+        <f t="shared" ref="V3:V51" si="9">O3&gt;(Q3*$V$1/U3)</f>
         <v>0</v>
       </c>
       <c r="W3" s="8">
-        <f t="shared" ref="W3:W51" si="5">IF(V3,P3+1,P3)</f>
+        <f t="shared" ref="W3:W51" si="10">IF(V3,P3+1,P3)</f>
         <v>7</v>
       </c>
       <c r="X3" s="8">
         <v>7</v>
       </c>
       <c r="Y3" s="8">
-        <f t="shared" ref="Y3:Y54" si="6">ROUND(O3,0)</f>
+        <f t="shared" ref="Y3:Y54" si="11">ROUND(O3,0)</f>
         <v>7</v>
       </c>
       <c r="AE3" s="6" t="b">
-        <f t="shared" ref="AE3:AE51" si="7">(O3-P3)&gt;=0.5</f>
+        <f t="shared" ref="AE3:AE51" si="12">(O3-P3)&gt;=0.5</f>
         <v>0</v>
       </c>
       <c r="AF3" s="8">
-        <f t="shared" ref="AF3:AF51" si="8">IF(AE3,P3+1,P3)</f>
+        <f t="shared" ref="AF3:AF51" si="13">IF(AE3,P3+1,P3)</f>
         <v>7</v>
       </c>
       <c r="AG3" s="8">
@@ -1016,19 +1016,19 @@
         <v>6</v>
       </c>
       <c r="AI3" s="9">
-        <f t="shared" ref="AI3:AI51" si="9">L3/X3</f>
+        <f t="shared" ref="AI3:AI51" si="14">L3/X3</f>
         <v>808191.71428571432</v>
       </c>
       <c r="AJ3" s="8">
-        <f>L3/(S3-1)</f>
+        <f t="shared" ref="AJ3:AJ13" si="15">L3/(S3-1)</f>
         <v>808191.71428571432</v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK13" si="10">AI3/$AI$6</f>
+        <f t="shared" ref="AK3:AK13" si="16">AI3/$AI$6</f>
         <v>1.0866850074401531</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL13" si="11">$AJ$6/AJ3</f>
+        <f t="shared" ref="AL3:AL13" si="17">$AJ$6/AJ3</f>
         <v>0.95703906180676368</v>
       </c>
     </row>
@@ -1070,47 +1070,47 @@
         <v>4921532</v>
       </c>
       <c r="M4" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4682582612218784E-2</v>
+      </c>
+      <c r="N4" s="3">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="O4" s="5">
         <f t="shared" si="0"/>
-        <v>2.4682582612218784E-2</v>
-      </c>
-      <c r="N4" s="3">
+        <v>6.511719162889114</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q4">
         <f t="shared" si="1"/>
-        <v>32</v>
-      </c>
-      <c r="O4" s="5">
-        <f>435*L4/SUM($L$2:$L$51)</f>
-        <v>6.511719162889114</v>
-      </c>
-      <c r="P4" s="7">
+        <v>6.4807406984078604</v>
+      </c>
+      <c r="R4" t="b">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="Q4">
-        <f>SQRT(P4*(P4+1))</f>
-        <v>6.4807406984078604</v>
-      </c>
-      <c r="R4" t="b">
-        <f>O4&gt;Q4</f>
         <v>1</v>
       </c>
       <c r="S4">
-        <f>IF(R4,P4+1,P4)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="T4" s="7">
-        <f>O4-S4</f>
+        <f t="shared" si="4"/>
         <v>-0.48828083711088599</v>
       </c>
       <c r="U4" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V4" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W4" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="X4" s="8">
@@ -1118,15 +1118,15 @@
         <v>7</v>
       </c>
       <c r="Y4" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="AE4" s="6" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AF4" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
       <c r="AG4" s="8">
@@ -1136,19 +1136,19 @@
         <v>4</v>
       </c>
       <c r="AI4" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>703076</v>
       </c>
       <c r="AJ4" s="8">
-        <f>L4/(S4-1)</f>
+        <f t="shared" si="15"/>
         <v>820255.33333333337</v>
       </c>
       <c r="AK4">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.9453476629196097</v>
       </c>
       <c r="AL4">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.94296374380985437</v>
       </c>
     </row>
@@ -1190,63 +1190,63 @@
         <v>1937552</v>
       </c>
       <c r="M5" s="3">
+        <f t="shared" si="5"/>
+        <v>5.77167578780724E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="O5" s="5">
         <f t="shared" si="0"/>
-        <v>5.77167578780724E-2</v>
-      </c>
-      <c r="N5" s="3">
+        <v>2.5635908671312366</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q5">
         <f t="shared" si="1"/>
-        <v>20</v>
-      </c>
-      <c r="O5" s="5">
-        <f>435*L5/SUM($L$2:$L$51)</f>
-        <v>2.5635908671312366</v>
-      </c>
-      <c r="P5" s="7">
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="R5" t="b">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q5">
-        <f>SQRT(P5*(P5+1))</f>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="R5" t="b">
-        <f>O5&gt;Q5</f>
         <v>1</v>
       </c>
       <c r="S5">
-        <f>IF(R5,P5+1,P5)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="T5" s="7">
-        <f>O5-S5</f>
+        <f t="shared" si="4"/>
         <v>-0.43640913286876337</v>
       </c>
       <c r="U5" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V5" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W5" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="X5" s="8">
-        <f t="shared" ref="X5:X51" si="12">S5</f>
+        <f t="shared" ref="X5:X51" si="18">S5</f>
         <v>3</v>
       </c>
       <c r="Y5" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="AE5" s="6" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AF5" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
       <c r="AG5" s="8">
@@ -1256,19 +1256,19 @@
         <v>30</v>
       </c>
       <c r="AI5" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>645850.66666666663</v>
       </c>
       <c r="AJ5" s="8">
-        <f>L5/(S5-1)</f>
+        <f t="shared" si="15"/>
         <v>968776</v>
       </c>
       <c r="AK5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.86840315745154883</v>
       </c>
       <c r="AL5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.79840029067606966</v>
       </c>
     </row>
@@ -1310,55 +1310,55 @@
         <v>19336776</v>
       </c>
       <c r="M6" s="3">
+        <f t="shared" si="5"/>
+        <v>-4.3395685764753278E-3</v>
+      </c>
+      <c r="N6" s="3">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="O6" s="13">
         <f t="shared" si="0"/>
-        <v>-4.3395685764753278E-3</v>
-      </c>
-      <c r="N6" s="3">
+        <v>25.584646168651208</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="7"/>
+        <v>25</v>
+      </c>
+      <c r="Q6" s="10">
         <f t="shared" si="1"/>
-        <v>46</v>
-      </c>
-      <c r="O6" s="13">
-        <f>435*L6/SUM($L$2:$L$51)</f>
-        <v>25.584646168651208</v>
-      </c>
-      <c r="P6" s="7">
+        <v>25.495097567963924</v>
+      </c>
+      <c r="R6" s="10" t="b">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="S6" s="10">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="T6" s="14">
+        <f t="shared" si="4"/>
+        <v>-0.41535383134879211</v>
+      </c>
+      <c r="U6" s="8">
+        <f t="shared" si="8"/>
+        <v>755796.10804597696</v>
+      </c>
+      <c r="V6" s="8" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="8">
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
-      <c r="Q6" s="10">
-        <f>SQRT(P6*(P6+1))</f>
-        <v>25.495097567963924</v>
-      </c>
-      <c r="R6" s="10" t="b">
-        <f>O6&gt;Q6</f>
-        <v>1</v>
-      </c>
-      <c r="S6" s="10">
-        <f>IF(R6,P6+1,P6)</f>
+      <c r="X6" s="15">
+        <f t="shared" si="18"/>
         <v>26</v>
       </c>
-      <c r="T6" s="14">
-        <f>O6-S6</f>
-        <v>-0.41535383134879211</v>
-      </c>
-      <c r="U6" s="8">
-        <f t="shared" si="3"/>
-        <v>755796.10804597696</v>
-      </c>
-      <c r="V6" s="8" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="8">
-        <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="X6" s="15">
-        <f t="shared" si="12"/>
-        <v>26</v>
-      </c>
       <c r="Y6" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="Z6" s="15"/>
@@ -1367,11 +1367,11 @@
       <c r="AC6" s="15"/>
       <c r="AD6" s="15"/>
       <c r="AE6" s="6" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AF6" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>26</v>
       </c>
       <c r="AG6" s="15">
@@ -1381,19 +1381,19 @@
         <v>5</v>
       </c>
       <c r="AI6" s="16">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>743722.15384615387</v>
       </c>
       <c r="AJ6" s="15">
-        <f>L6/(S6-1)</f>
+        <f t="shared" si="15"/>
         <v>773471.04</v>
       </c>
       <c r="AK6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
       <c r="AL6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>1</v>
       </c>
     </row>
@@ -1435,63 +1435,63 @@
         <v>4241507</v>
       </c>
       <c r="M7" s="3">
+        <f t="shared" si="5"/>
+        <v>0.10208917202748213</v>
+      </c>
+      <c r="N7" s="3">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="O7" s="5">
         <f t="shared" si="0"/>
-        <v>0.10208917202748213</v>
-      </c>
-      <c r="N7" s="3">
+        <v>5.6119725344523452</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q7">
         <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="O7" s="5">
-        <f>435*L7/SUM($L$2:$L$51)</f>
-        <v>5.6119725344523452</v>
-      </c>
-      <c r="P7" s="7">
+        <v>5.4772255750516612</v>
+      </c>
+      <c r="R7" t="b">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="Q7">
-        <f>SQRT(P7*(P7+1))</f>
-        <v>5.4772255750516612</v>
-      </c>
-      <c r="R7" t="b">
-        <f>O7&gt;Q7</f>
         <v>1</v>
       </c>
       <c r="S7">
-        <f>IF(R7,P7+1,P7)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="T7" s="7">
-        <f>O7-S7</f>
+        <f t="shared" si="4"/>
         <v>-0.38802746554765477</v>
       </c>
       <c r="U7" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V7" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W7" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="X7" s="8">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="Y7" s="8">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AE7" s="6" t="b">
         <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="Y7" s="8">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="AE7" s="6" t="b">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AF7" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
       <c r="AG7" s="8">
@@ -1501,19 +1501,19 @@
         <v>38</v>
       </c>
       <c r="AI7" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>706917.83333333337</v>
       </c>
       <c r="AJ7" s="8">
-        <f>L7/(S7-1)</f>
+        <f t="shared" si="15"/>
         <v>848301.4</v>
       </c>
       <c r="AK7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.95051334651995079</v>
       </c>
       <c r="AL7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.91178800365058932</v>
       </c>
     </row>
@@ -1555,63 +1555,63 @@
         <v>12587530</v>
       </c>
       <c r="M8" s="3">
+        <f t="shared" si="5"/>
+        <v>-2.1520664035110881E-2</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" si="6"/>
+        <v>49</v>
+      </c>
+      <c r="O8" s="5">
         <f t="shared" si="0"/>
-        <v>-2.1520664035110881E-2</v>
-      </c>
-      <c r="N8" s="3">
+        <v>16.654663693021117</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="Q8">
         <f t="shared" si="1"/>
-        <v>49</v>
-      </c>
-      <c r="O8" s="5">
-        <f>435*L8/SUM($L$2:$L$51)</f>
-        <v>16.654663693021117</v>
-      </c>
-      <c r="P8" s="7">
+        <v>16.492422502470642</v>
+      </c>
+      <c r="R8" t="b">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="Q8">
-        <f>SQRT(P8*(P8+1))</f>
-        <v>16.492422502470642</v>
-      </c>
-      <c r="R8" t="b">
-        <f>O8&gt;Q8</f>
         <v>1</v>
       </c>
       <c r="S8">
-        <f>IF(R8,P8+1,P8)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="T8" s="7">
-        <f>O8-S8</f>
+        <f t="shared" si="4"/>
         <v>-0.34533630697888285</v>
       </c>
       <c r="U8" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V8" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W8" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="X8" s="8">
+        <f t="shared" si="18"/>
+        <v>17</v>
+      </c>
+      <c r="Y8" s="8">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="AE8" s="6" t="b">
         <f t="shared" si="12"/>
-        <v>17</v>
-      </c>
-      <c r="Y8" s="8">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="AE8" s="6" t="b">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AF8" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="AG8" s="8">
@@ -1621,19 +1621,19 @@
         <v>1</v>
       </c>
       <c r="AI8" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>740442.9411764706</v>
       </c>
       <c r="AJ8" s="8">
-        <f>L8/(S8-1)</f>
+        <f t="shared" si="15"/>
         <v>786720.625</v>
       </c>
       <c r="AK8">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.99559080948076528</v>
       </c>
       <c r="AL8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.9831584623830093</v>
       </c>
     </row>
@@ -1675,63 +1675,63 @@
         <v>5807719</v>
       </c>
       <c r="M9" s="3">
+        <f t="shared" si="5"/>
+        <v>0.15119912466575358</v>
+      </c>
+      <c r="N9" s="3">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="O9" s="5">
         <f t="shared" si="0"/>
-        <v>0.15119912466575358</v>
-      </c>
-      <c r="N9" s="3">
+        <v>7.6842404163937577</v>
+      </c>
+      <c r="P9" s="7">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="Q9">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="O9" s="5">
-        <f>435*L9/SUM($L$2:$L$51)</f>
-        <v>7.6842404163937577</v>
-      </c>
-      <c r="P9" s="7">
+        <v>7.4833147735478827</v>
+      </c>
+      <c r="R9" t="b">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Q9">
-        <f>SQRT(P9*(P9+1))</f>
-        <v>7.4833147735478827</v>
-      </c>
-      <c r="R9" t="b">
-        <f>O9&gt;Q9</f>
         <v>1</v>
       </c>
       <c r="S9">
-        <f>IF(R9,P9+1,P9)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="T9" s="7">
-        <f>O9-S9</f>
+        <f t="shared" si="4"/>
         <v>-0.31575958360624234</v>
       </c>
       <c r="U9" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V9" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W9" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="X9" s="8">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="Y9" s="8">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AE9" s="6" t="b">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="Y9" s="8">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="AE9" s="6" t="b">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AF9" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="AG9" s="8">
@@ -1741,19 +1741,19 @@
         <v>13</v>
       </c>
       <c r="AI9" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>725964.875</v>
       </c>
       <c r="AJ9" s="8">
-        <f>L9/(S9-1)</f>
+        <f t="shared" si="15"/>
         <v>829674.14285714284</v>
       </c>
       <c r="AK9">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.97612377316673671</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.93225882312832287</v>
       </c>
     </row>
@@ -1795,63 +1795,63 @@
         <v>3557006</v>
       </c>
       <c r="M10" s="3">
+        <f t="shared" si="5"/>
+        <v>-6.8745274495285447E-3</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="6"/>
+        <v>47</v>
+      </c>
+      <c r="O10" s="5">
         <f t="shared" si="0"/>
-        <v>-6.8745274495285447E-3</v>
-      </c>
-      <c r="N10" s="3">
+        <v>4.7063036738786943</v>
+      </c>
+      <c r="P10" s="7">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q10">
         <f t="shared" si="1"/>
-        <v>47</v>
-      </c>
-      <c r="O10" s="5">
-        <f>435*L10/SUM($L$2:$L$51)</f>
-        <v>4.7063036738786943</v>
-      </c>
-      <c r="P10" s="7">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="R10" t="b">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Q10">
-        <f>SQRT(P10*(P10+1))</f>
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="R10" t="b">
-        <f>O10&gt;Q10</f>
         <v>1</v>
       </c>
       <c r="S10">
-        <f>IF(R10,P10+1,P10)</f>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="T10" s="7">
-        <f>O10-S10</f>
+        <f t="shared" si="4"/>
         <v>-0.2936963261213057</v>
       </c>
       <c r="U10" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V10" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W10" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="X10" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="Y10" s="8">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AE10" s="6" t="b">
         <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="Y10" s="8">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AE10" s="6" t="b">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AF10" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="AG10" s="8">
@@ -1861,19 +1861,19 @@
         <v>14</v>
       </c>
       <c r="AI10" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>711401.2</v>
       </c>
       <c r="AJ10" s="8">
-        <f>L10/(S10-1)</f>
+        <f t="shared" si="15"/>
         <v>889251.5</v>
       </c>
       <c r="AK10">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.95654162824247424</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.86980009592336927</v>
       </c>
     </row>
@@ -1915,63 +1915,63 @@
         <v>5832655</v>
       </c>
       <c r="M11" s="3">
+        <f t="shared" si="5"/>
+        <v>2.3590658853714253E-2</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="O11" s="5">
         <f t="shared" si="0"/>
-        <v>2.3590658853714253E-2</v>
-      </c>
-      <c r="N11" s="3">
+        <v>7.7172334415423913</v>
+      </c>
+      <c r="P11" s="7">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="Q11">
         <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-      <c r="O11" s="5">
-        <f>435*L11/SUM($L$2:$L$51)</f>
-        <v>7.7172334415423913</v>
-      </c>
-      <c r="P11" s="7">
+        <v>7.4833147735478827</v>
+      </c>
+      <c r="R11" t="b">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="Q11">
-        <f>SQRT(P11*(P11+1))</f>
-        <v>7.4833147735478827</v>
-      </c>
-      <c r="R11" t="b">
-        <f>O11&gt;Q11</f>
         <v>1</v>
       </c>
       <c r="S11">
-        <f>IF(R11,P11+1,P11)</f>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="T11" s="7">
-        <f>O11-S11</f>
+        <f t="shared" si="4"/>
         <v>-0.28276655845760867</v>
       </c>
       <c r="U11" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V11" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W11" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="X11" s="8">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="Y11" s="8">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AE11" s="6" t="b">
         <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="Y11" s="8">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="AE11" s="6" t="b">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AF11" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="AG11" s="8">
@@ -1981,19 +1981,19 @@
         <v>48</v>
       </c>
       <c r="AI11" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>729081.875</v>
       </c>
       <c r="AJ11" s="8">
-        <f>L11/(S11-1)</f>
+        <f t="shared" si="15"/>
         <v>833236.42857142852</v>
       </c>
       <c r="AK11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.98031485445143485</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.92827319291129007</v>
       </c>
     </row>
@@ -2035,63 +2035,63 @@
         <v>8882371</v>
       </c>
       <c r="M12" s="3">
+        <f t="shared" si="5"/>
+        <v>8.5007086573138935E-3</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="6"/>
+        <v>41</v>
+      </c>
+      <c r="O12" s="5">
         <f t="shared" si="0"/>
-        <v>8.5007086573138935E-3</v>
-      </c>
-      <c r="N12" s="3">
+        <v>11.752337575492863</v>
+      </c>
+      <c r="P12" s="7">
+        <f t="shared" si="7"/>
+        <v>11</v>
+      </c>
+      <c r="Q12">
         <f t="shared" si="1"/>
-        <v>41</v>
-      </c>
-      <c r="O12" s="5">
-        <f>435*L12/SUM($L$2:$L$51)</f>
-        <v>11.752337575492863</v>
-      </c>
-      <c r="P12" s="7">
+        <v>11.489125293076057</v>
+      </c>
+      <c r="R12" t="b">
         <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
-      <c r="Q12">
-        <f>SQRT(P12*(P12+1))</f>
-        <v>11.489125293076057</v>
-      </c>
-      <c r="R12" t="b">
-        <f>O12&gt;Q12</f>
         <v>1</v>
       </c>
       <c r="S12">
-        <f>IF(R12,P12+1,P12)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="T12" s="7">
-        <f>O12-S12</f>
+        <f t="shared" si="4"/>
         <v>-0.24766242450713705</v>
       </c>
       <c r="U12" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V12" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W12" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>12</v>
       </c>
       <c r="X12" s="8">
+        <f t="shared" si="18"/>
+        <v>12</v>
+      </c>
+      <c r="Y12" s="8">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="AE12" s="6" t="b">
         <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="Y12" s="8">
-        <f t="shared" si="6"/>
-        <v>12</v>
-      </c>
-      <c r="AE12" s="6" t="b">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AF12" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="AG12" s="8">
@@ -2101,19 +2101,19 @@
         <v>33</v>
       </c>
       <c r="AI12" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>740197.58333333337</v>
       </c>
       <c r="AJ12" s="8">
-        <f>L12/(S12-1)</f>
+        <f t="shared" si="15"/>
         <v>807488.27272727271</v>
       </c>
       <c r="AK12">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0.99526090423070868</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.95787278419241895</v>
       </c>
     </row>
@@ -2155,63 +2155,63 @@
         <v>21733312</v>
       </c>
       <c r="M13" s="3">
+        <f t="shared" si="5"/>
+        <v>0.14986365901542764</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="O13" s="5">
         <f t="shared" si="0"/>
-        <v>0.14986365901542764</v>
-      </c>
-      <c r="N13" s="3">
+        <v>28.755522512796411</v>
+      </c>
+      <c r="P13" s="7">
+        <f t="shared" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="Q13">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="O13" s="5">
-        <f>435*L13/SUM($L$2:$L$51)</f>
-        <v>28.755522512796411</v>
-      </c>
-      <c r="P13" s="7">
+        <v>28.495613697550013</v>
+      </c>
+      <c r="R13" t="b">
         <f t="shared" si="2"/>
-        <v>28</v>
-      </c>
-      <c r="Q13">
-        <f>SQRT(P13*(P13+1))</f>
-        <v>28.495613697550013</v>
-      </c>
-      <c r="R13" t="b">
-        <f>O13&gt;Q13</f>
         <v>1</v>
       </c>
       <c r="S13">
-        <f>IF(R13,P13+1,P13)</f>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="T13" s="7">
-        <f>O13-S13</f>
+        <f t="shared" si="4"/>
         <v>-0.24447748720358931</v>
       </c>
       <c r="U13" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V13" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W13" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>29</v>
       </c>
       <c r="X13" s="8">
+        <f t="shared" si="18"/>
+        <v>29</v>
+      </c>
+      <c r="Y13" s="8">
+        <f t="shared" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="AE13" s="6" t="b">
         <f t="shared" si="12"/>
-        <v>29</v>
-      </c>
-      <c r="Y13" s="8">
-        <f t="shared" si="6"/>
-        <v>29</v>
-      </c>
-      <c r="AE13" s="6" t="b">
-        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="AF13" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>29</v>
       </c>
       <c r="AG13" s="8">
@@ -2221,19 +2221,19 @@
         <v>2</v>
       </c>
       <c r="AI13" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>749424.55172413797</v>
       </c>
       <c r="AJ13" s="8">
-        <f>L13/(S13-1)</f>
+        <f t="shared" si="15"/>
         <v>776189.71428571432</v>
       </c>
       <c r="AK13">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>1.0076673766520121</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="11"/>
+        <f t="shared" si="17"/>
         <v>0.99649741005880743</v>
       </c>
     </row>
@@ -2275,67 +2275,67 @@
         <v>582328</v>
       </c>
       <c r="M14" s="3">
+        <f t="shared" si="5"/>
+        <v>2.4684145697694948E-2</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="O14" s="5">
         <f t="shared" si="0"/>
-        <v>2.4684145697694948E-2</v>
-      </c>
-      <c r="N14" s="3">
+        <v>0.77048293025157455</v>
+      </c>
+      <c r="P14" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <f t="shared" si="1"/>
-        <v>31</v>
-      </c>
-      <c r="O14" s="5">
-        <f>435*L14/SUM($L$2:$L$51)</f>
-        <v>0.77048293025157455</v>
-      </c>
-      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+      <c r="R14" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <f>SQRT(P14*(P14+1))</f>
-        <v>0</v>
-      </c>
-      <c r="R14" t="b">
-        <f>O14&gt;Q14</f>
         <v>1</v>
       </c>
       <c r="S14">
-        <f>IF(R14,P14+1,P14)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T14" s="7">
-        <f>O14-S14</f>
+        <f t="shared" si="4"/>
         <v>-0.22951706974842545</v>
       </c>
       <c r="U14" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V14" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W14" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X14" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AE14" s="6" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="Y14" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AE14" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
       <c r="AF14" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AI14" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>582328</v>
       </c>
     </row>
@@ -2377,67 +2377,67 @@
         <v>1350141</v>
       </c>
       <c r="M15" s="3">
+        <f t="shared" si="5"/>
+        <v>1.2802740132955792E-2</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="O15" s="5">
         <f t="shared" si="0"/>
-        <v>1.2802740132955792E-2</v>
-      </c>
-      <c r="N15" s="3">
+        <v>1.7863825780879352</v>
+      </c>
+      <c r="P15" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q15">
         <f t="shared" si="1"/>
-        <v>39</v>
-      </c>
-      <c r="O15" s="5">
-        <f>435*L15/SUM($L$2:$L$51)</f>
-        <v>1.7863825780879352</v>
-      </c>
-      <c r="P15" s="7">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="R15" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q15">
-        <f>SQRT(P15*(P15+1))</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="R15" t="b">
-        <f>O15&gt;Q15</f>
-        <v>1</v>
-      </c>
       <c r="S15">
-        <f>IF(R15,P15+1,P15)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="T15" s="7">
-        <f>O15-S15</f>
+        <f t="shared" si="4"/>
         <v>-0.21361742191206479</v>
       </c>
       <c r="U15" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V15" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W15" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="X15" s="8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="Y15" s="8">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AE15" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AF15" s="8">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="Y15" s="8">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AE15" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AF15" s="8">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
       <c r="AI15" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>675070.5</v>
       </c>
       <c r="AJ15" s="8">
@@ -2483,67 +2483,67 @@
         <v>2106319</v>
       </c>
       <c r="M16" s="3">
+        <f t="shared" si="5"/>
+        <v>1.8887684403559701E-2</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+      <c r="O16" s="5">
         <f t="shared" si="0"/>
-        <v>1.8887684403559701E-2</v>
-      </c>
-      <c r="N16" s="3">
+        <v>2.7868878624496269</v>
+      </c>
+      <c r="P16" s="7">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Q16">
         <f t="shared" si="1"/>
-        <v>36</v>
-      </c>
-      <c r="O16" s="5">
-        <f>435*L16/SUM($L$2:$L$51)</f>
-        <v>2.7868878624496269</v>
-      </c>
-      <c r="P16" s="7">
+        <v>2.4494897427831779</v>
+      </c>
+      <c r="R16" t="b">
         <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="Q16">
-        <f>SQRT(P16*(P16+1))</f>
-        <v>2.4494897427831779</v>
-      </c>
-      <c r="R16" t="b">
-        <f>O16&gt;Q16</f>
         <v>1</v>
       </c>
       <c r="S16">
-        <f>IF(R16,P16+1,P16)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="T16" s="7">
-        <f>O16-S16</f>
+        <f t="shared" si="4"/>
         <v>-0.21311213755037306</v>
       </c>
       <c r="U16" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V16" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W16" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="X16" s="8">
+        <f t="shared" si="18"/>
+        <v>3</v>
+      </c>
+      <c r="Y16" s="8">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="AE16" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AF16" s="8">
+        <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="Y16" s="8">
-        <f t="shared" si="6"/>
-        <v>3</v>
-      </c>
-      <c r="AE16" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AF16" s="8">
-        <f t="shared" si="8"/>
-        <v>3</v>
-      </c>
       <c r="AI16" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>702106.33333333337</v>
       </c>
       <c r="AJ16" s="8">
@@ -2589,67 +2589,67 @@
         <v>1366275</v>
       </c>
       <c r="M17" s="3">
+        <f t="shared" si="5"/>
+        <v>3.3924983635338579E-2</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="O17" s="5">
         <f t="shared" si="0"/>
-        <v>3.3924983635338579E-2</v>
-      </c>
-      <c r="N17" s="3">
+        <v>1.8077296051872314</v>
+      </c>
+      <c r="P17" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q17">
         <f t="shared" si="1"/>
-        <v>28</v>
-      </c>
-      <c r="O17" s="5">
-        <f>435*L17/SUM($L$2:$L$51)</f>
-        <v>1.8077296051872314</v>
-      </c>
-      <c r="P17" s="7">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="R17" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q17">
-        <f>SQRT(P17*(P17+1))</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="R17" t="b">
-        <f>O17&gt;Q17</f>
-        <v>1</v>
-      </c>
       <c r="S17">
-        <f>IF(R17,P17+1,P17)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="T17" s="7">
-        <f>O17-S17</f>
+        <f t="shared" si="4"/>
         <v>-0.19227039481276864</v>
       </c>
       <c r="U17" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V17" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W17" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="X17" s="8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="Y17" s="8">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AE17" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AF17" s="8">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="Y17" s="8">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AE17" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AF17" s="8">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
       <c r="AI17" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>683137.5</v>
       </c>
       <c r="AJ17" s="8">
@@ -2695,67 +2695,67 @@
         <v>7421401</v>
       </c>
       <c r="M18" s="3">
+        <f t="shared" si="5"/>
+        <v>0.15729739423331823</v>
+      </c>
+      <c r="N18" s="3">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="O18" s="5">
         <f t="shared" si="0"/>
-        <v>0.15729739423331823</v>
-      </c>
-      <c r="N18" s="3">
+        <v>9.8193162428252894</v>
+      </c>
+      <c r="P18" s="7">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Q18">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="O18" s="5">
-        <f>435*L18/SUM($L$2:$L$51)</f>
-        <v>9.8193162428252894</v>
-      </c>
-      <c r="P18" s="7">
+        <v>9.4868329805051381</v>
+      </c>
+      <c r="R18" t="b">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="Q18">
-        <f>SQRT(P18*(P18+1))</f>
-        <v>9.4868329805051381</v>
-      </c>
-      <c r="R18" t="b">
-        <f>O18&gt;Q18</f>
         <v>1</v>
       </c>
       <c r="S18">
-        <f>IF(R18,P18+1,P18)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="T18" s="7">
-        <f>O18-S18</f>
+        <f t="shared" si="4"/>
         <v>-0.18068375717471064</v>
       </c>
       <c r="U18" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V18" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W18" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="X18" s="8">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="Y18" s="8">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AE18" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AF18" s="8">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="Y18" s="8">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="AE18" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AF18" s="8">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
       <c r="AI18" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>742140.1</v>
       </c>
       <c r="AJ18" s="8">
@@ -2801,67 +2801,67 @@
         <v>623347</v>
       </c>
       <c r="M19" s="3">
+        <f t="shared" si="5"/>
+        <v>-1.1089306196526594E-2</v>
+      </c>
+      <c r="N19" s="3">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+      <c r="O19" s="5">
         <f t="shared" si="0"/>
-        <v>-1.1089306196526594E-2</v>
-      </c>
-      <c r="N19" s="3">
+        <v>0.82475550398319886</v>
+      </c>
+      <c r="P19" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-      <c r="O19" s="5">
-        <f>435*L19/SUM($L$2:$L$51)</f>
-        <v>0.82475550398319886</v>
-      </c>
-      <c r="P19" s="7">
+        <v>0</v>
+      </c>
+      <c r="R19" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <f>SQRT(P19*(P19+1))</f>
-        <v>0</v>
-      </c>
-      <c r="R19" t="b">
-        <f>O19&gt;Q19</f>
         <v>1</v>
       </c>
       <c r="S19">
-        <f>IF(R19,P19+1,P19)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T19" s="7">
-        <f>O19-S19</f>
+        <f t="shared" si="4"/>
         <v>-0.17524449601680114</v>
       </c>
       <c r="U19" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V19" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W19" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X19" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Y19" s="8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AE19" s="6" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="Y19" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AE19" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
       <c r="AF19" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AI19" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>623347</v>
       </c>
     </row>
@@ -2903,67 +2903,67 @@
         <v>29360759</v>
       </c>
       <c r="M20" s="3">
+        <f t="shared" si="5"/>
+        <v>0.16195477690767968</v>
+      </c>
+      <c r="N20" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O20" s="5">
         <f t="shared" si="0"/>
-        <v>0.16195477690767968</v>
-      </c>
-      <c r="N20" s="3">
+        <v>38.847459900142688</v>
+      </c>
+      <c r="P20" s="7">
+        <f t="shared" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="Q20">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="O20" s="5">
-        <f>435*L20/SUM($L$2:$L$51)</f>
-        <v>38.847459900142688</v>
-      </c>
-      <c r="P20" s="7">
+        <v>38.496753109840313</v>
+      </c>
+      <c r="R20" t="b">
         <f t="shared" si="2"/>
-        <v>38</v>
-      </c>
-      <c r="Q20">
-        <f>SQRT(P20*(P20+1))</f>
-        <v>38.496753109840313</v>
-      </c>
-      <c r="R20" t="b">
-        <f>O20&gt;Q20</f>
         <v>1</v>
       </c>
       <c r="S20">
-        <f>IF(R20,P20+1,P20)</f>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="T20" s="7">
-        <f>O20-S20</f>
+        <f t="shared" si="4"/>
         <v>-0.15254009985731187</v>
       </c>
       <c r="U20" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V20" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W20" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>39</v>
       </c>
       <c r="X20" s="8">
+        <f t="shared" si="18"/>
+        <v>39</v>
+      </c>
+      <c r="Y20" s="8">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="AE20" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AF20" s="8">
+        <f t="shared" si="13"/>
         <v>39</v>
       </c>
-      <c r="Y20" s="8">
-        <f t="shared" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="AE20" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AF20" s="8">
-        <f t="shared" si="8"/>
-        <v>39</v>
-      </c>
       <c r="AI20" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>752839.97435897437</v>
       </c>
     </row>
@@ -3005,67 +3005,67 @@
         <v>2913805</v>
       </c>
       <c r="M21" s="3">
+        <f t="shared" si="5"/>
+        <v>1.7456447051535928E-2</v>
+      </c>
+      <c r="N21" s="3">
+        <f t="shared" si="6"/>
+        <v>37</v>
+      </c>
+      <c r="O21" s="5">
         <f t="shared" si="0"/>
-        <v>1.7456447051535928E-2</v>
-      </c>
-      <c r="N21" s="3">
+        <v>3.8552791804304261</v>
+      </c>
+      <c r="P21" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q21">
         <f t="shared" si="1"/>
-        <v>37</v>
-      </c>
-      <c r="O21" s="5">
-        <f>435*L21/SUM($L$2:$L$51)</f>
-        <v>3.8552791804304261</v>
-      </c>
-      <c r="P21" s="7">
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="R21" t="b">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Q21">
-        <f>SQRT(P21*(P21+1))</f>
-        <v>3.4641016151377544</v>
-      </c>
-      <c r="R21" t="b">
-        <f>O21&gt;Q21</f>
         <v>1</v>
       </c>
       <c r="S21">
-        <f>IF(R21,P21+1,P21)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="T21" s="7">
-        <f>O21-S21</f>
+        <f t="shared" si="4"/>
         <v>-0.14472081956957394</v>
       </c>
       <c r="U21" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V21" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W21" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="X21" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="Y21" s="8">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AE21" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AF21" s="8">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="Y21" s="8">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AE21" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AF21" s="8">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
       <c r="AI21" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>728451.25</v>
       </c>
     </row>
@@ -3107,67 +3107,67 @@
         <v>1407006</v>
       </c>
       <c r="M22" s="3">
+        <f t="shared" si="5"/>
+        <v>2.936946085266845E-2</v>
+      </c>
+      <c r="N22" s="3">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="O22" s="5">
         <f t="shared" si="0"/>
-        <v>2.936946085266845E-2</v>
-      </c>
-      <c r="N22" s="3">
+        <v>1.861621123767957</v>
+      </c>
+      <c r="P22" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
-      <c r="O22" s="5">
-        <f>435*L22/SUM($L$2:$L$51)</f>
-        <v>1.861621123767957</v>
-      </c>
-      <c r="P22" s="7">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="R22" t="b">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="Q22">
-        <f>SQRT(P22*(P22+1))</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="R22" t="b">
-        <f>O22&gt;Q22</f>
-        <v>1</v>
-      </c>
       <c r="S22">
-        <f>IF(R22,P22+1,P22)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="T22" s="7">
-        <f>O22-S22</f>
+        <f t="shared" si="4"/>
         <v>-0.13837887623204304</v>
       </c>
       <c r="U22" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V22" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W22" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="X22" s="8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="Y22" s="8">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AE22" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AF22" s="8">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="Y22" s="8">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AE22" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AF22" s="8">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
       <c r="AI22" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>703503</v>
       </c>
     </row>
@@ -3209,67 +3209,67 @@
         <v>5218040</v>
       </c>
       <c r="M23" s="3">
+        <f t="shared" si="5"/>
+        <v>0.12313131258777754</v>
+      </c>
+      <c r="N23" s="3">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="O23" s="5">
         <f t="shared" si="0"/>
-        <v>0.12313131258777754</v>
-      </c>
-      <c r="N23" s="3">
+        <v>6.9040313180371307</v>
+      </c>
+      <c r="P23" s="7">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="O23" s="5">
-        <f>435*L23/SUM($L$2:$L$51)</f>
-        <v>6.9040313180371307</v>
-      </c>
-      <c r="P23" s="7">
+        <v>6.4807406984078604</v>
+      </c>
+      <c r="R23" t="b">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="Q23">
-        <f>SQRT(P23*(P23+1))</f>
-        <v>6.4807406984078604</v>
-      </c>
-      <c r="R23" t="b">
-        <f>O23&gt;Q23</f>
         <v>1</v>
       </c>
       <c r="S23">
-        <f>IF(R23,P23+1,P23)</f>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="T23" s="7">
-        <f>O23-S23</f>
+        <f t="shared" si="4"/>
         <v>-9.596868196286934E-2</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V23" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="X23" s="8">
+        <f t="shared" si="18"/>
+        <v>7</v>
+      </c>
+      <c r="Y23" s="8">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AE23" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AF23" s="8">
+        <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="Y23" s="8">
-        <f t="shared" si="6"/>
-        <v>7</v>
-      </c>
-      <c r="AE23" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AF23" s="8">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
       <c r="AI23" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>745434.28571428568</v>
       </c>
     </row>
@@ -3311,67 +3311,67 @@
         <v>12783254</v>
       </c>
       <c r="M24" s="3">
+        <f t="shared" si="5"/>
+        <v>3.7965732763614035E-3</v>
+      </c>
+      <c r="N24" s="3">
+        <f t="shared" si="6"/>
+        <v>43</v>
+      </c>
+      <c r="O24" s="5">
         <f t="shared" si="0"/>
-        <v>3.7965732763614035E-3</v>
-      </c>
-      <c r="N24" s="3">
+        <v>16.913627715085248</v>
+      </c>
+      <c r="P24" s="7">
+        <f t="shared" si="7"/>
+        <v>16</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="1"/>
-        <v>43</v>
-      </c>
-      <c r="O24" s="5">
-        <f>435*L24/SUM($L$2:$L$51)</f>
-        <v>16.913627715085248</v>
-      </c>
-      <c r="P24" s="7">
+        <v>16.492422502470642</v>
+      </c>
+      <c r="R24" t="b">
         <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-      <c r="Q24">
-        <f>SQRT(P24*(P24+1))</f>
-        <v>16.492422502470642</v>
-      </c>
-      <c r="R24" t="b">
-        <f>O24&gt;Q24</f>
         <v>1</v>
       </c>
       <c r="S24">
-        <f>IF(R24,P24+1,P24)</f>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="T24" s="7">
-        <f>O24-S24</f>
+        <f t="shared" si="4"/>
         <v>-8.6372284914752129E-2</v>
       </c>
       <c r="U24" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V24" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W24" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>17</v>
       </c>
       <c r="X24" s="8">
+        <f t="shared" si="18"/>
+        <v>17</v>
+      </c>
+      <c r="Y24" s="8">
+        <f t="shared" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="AE24" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AF24" s="8">
+        <f t="shared" si="13"/>
         <v>17</v>
       </c>
-      <c r="Y24" s="8">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="AE24" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AF24" s="8">
-        <f t="shared" si="8"/>
-        <v>17</v>
-      </c>
       <c r="AI24" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>751956.1176470588</v>
       </c>
     </row>
@@ -3413,67 +3413,67 @@
         <v>4477251</v>
       </c>
       <c r="M25" s="3">
+        <f t="shared" si="5"/>
+        <v>2.9109737815835368E-2</v>
+      </c>
+      <c r="N25" s="3">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="O25" s="5">
         <f t="shared" si="0"/>
-        <v>2.9109737815835368E-2</v>
-      </c>
-      <c r="N25" s="3">
+        <v>5.9238873451934175</v>
+      </c>
+      <c r="P25" s="7">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="1"/>
-        <v>30</v>
-      </c>
-      <c r="O25" s="5">
-        <f>435*L25/SUM($L$2:$L$51)</f>
-        <v>5.9238873451934175</v>
-      </c>
-      <c r="P25" s="7">
+        <v>5.4772255750516612</v>
+      </c>
+      <c r="R25" t="b">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="Q25">
-        <f>SQRT(P25*(P25+1))</f>
-        <v>5.4772255750516612</v>
-      </c>
-      <c r="R25" t="b">
-        <f>O25&gt;Q25</f>
         <v>1</v>
       </c>
       <c r="S25">
-        <f>IF(R25,P25+1,P25)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="T25" s="7">
-        <f>O25-S25</f>
+        <f t="shared" si="4"/>
         <v>-7.6112654806582469E-2</v>
       </c>
       <c r="U25" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V25" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W25" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="X25" s="8">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="Y25" s="8">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AE25" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AF25" s="8">
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="Y25" s="8">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="AE25" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AF25" s="8">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
       <c r="AI25" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>746208.5</v>
       </c>
     </row>
@@ -3515,67 +3515,67 @@
         <v>2966786</v>
       </c>
       <c r="M26" s="3">
+        <f t="shared" si="5"/>
+        <v>-3.8458955624798286E-3</v>
+      </c>
+      <c r="N26" s="3">
+        <f t="shared" si="6"/>
+        <v>45</v>
+      </c>
+      <c r="O26" s="5">
         <f t="shared" si="0"/>
-        <v>-3.8458955624798286E-3</v>
-      </c>
-      <c r="N26" s="3">
+        <v>3.9253787740059689</v>
+      </c>
+      <c r="P26" s="7">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-      <c r="O26" s="5">
-        <f>435*L26/SUM($L$2:$L$51)</f>
-        <v>3.9253787740059689</v>
-      </c>
-      <c r="P26" s="7">
+        <v>3.4641016151377544</v>
+      </c>
+      <c r="R26" t="b">
         <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="Q26">
-        <f>SQRT(P26*(P26+1))</f>
-        <v>3.4641016151377544</v>
-      </c>
-      <c r="R26" t="b">
-        <f>O26&gt;Q26</f>
         <v>1</v>
       </c>
       <c r="S26">
-        <f>IF(R26,P26+1,P26)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="T26" s="7">
-        <f>O26-S26</f>
+        <f t="shared" si="4"/>
         <v>-7.4621225994031093E-2</v>
       </c>
       <c r="U26" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V26" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W26" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="X26" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="Y26" s="8">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AE26" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AF26" s="8">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="Y26" s="8">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AE26" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AF26" s="8">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
       <c r="AI26" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>741696.5</v>
       </c>
     </row>
@@ -3617,67 +3617,67 @@
         <v>6754953</v>
       </c>
       <c r="M27" s="3">
+        <f t="shared" si="5"/>
+        <v>3.897066898487167E-2</v>
+      </c>
+      <c r="N27" s="3">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="O27" s="5">
         <f t="shared" si="0"/>
-        <v>3.897066898487167E-2</v>
-      </c>
-      <c r="N27" s="3">
+        <v>8.9375334539154299</v>
+      </c>
+      <c r="P27" s="7">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Q27">
         <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="O27" s="5">
-        <f>435*L27/SUM($L$2:$L$51)</f>
-        <v>8.9375334539154299</v>
-      </c>
-      <c r="P27" s="7">
+        <v>8.4852813742385695</v>
+      </c>
+      <c r="R27" t="b">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="Q27">
-        <f>SQRT(P27*(P27+1))</f>
-        <v>8.4852813742385695</v>
-      </c>
-      <c r="R27" t="b">
-        <f>O27&gt;Q27</f>
         <v>1</v>
       </c>
       <c r="S27">
-        <f>IF(R27,P27+1,P27)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="T27" s="7">
-        <f>O27-S27</f>
+        <f t="shared" si="4"/>
         <v>-6.246654608457014E-2</v>
       </c>
       <c r="U27" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V27" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W27" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="X27" s="8">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="Y27" s="8">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AE27" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AF27" s="8">
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="Y27" s="8">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="AE27" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
-      <c r="AF27" s="8">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
       <c r="AI27" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>750550.33333333337</v>
       </c>
     </row>
@@ -3719,67 +3719,67 @@
         <v>731158</v>
       </c>
       <c r="M28" s="3">
+        <f t="shared" si="5"/>
+        <v>1.3353697664523434E-2</v>
+      </c>
+      <c r="N28" s="3">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+      <c r="O28" s="5">
         <f t="shared" si="0"/>
-        <v>1.3353697664523434E-2</v>
-      </c>
-      <c r="N28" s="3">
+        <v>0.96740111812737961</v>
+      </c>
+      <c r="P28" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
-      <c r="O28" s="5">
-        <f>435*L28/SUM($L$2:$L$51)</f>
-        <v>0.96740111812737961</v>
-      </c>
-      <c r="P28" s="7">
+        <v>0</v>
+      </c>
+      <c r="R28" t="b">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <f>SQRT(P28*(P28+1))</f>
-        <v>0</v>
-      </c>
-      <c r="R28" t="b">
-        <f>O28&gt;Q28</f>
         <v>1</v>
       </c>
       <c r="S28">
-        <f>IF(R28,P28+1,P28)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T28" s="7">
-        <f>O28-S28</f>
+        <f t="shared" si="4"/>
         <v>-3.2598881872620389E-2</v>
       </c>
       <c r="U28" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V28" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="W28" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X28" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Y28" s="8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AE28" s="6" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="Y28" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AE28" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>1</v>
-      </c>
       <c r="AF28" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AI28" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>731158</v>
       </c>
     </row>
@@ -3821,67 +3821,67 @@
         <v>3030522</v>
       </c>
       <c r="M29" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5640751287749461E-2</v>
+      </c>
+      <c r="N29" s="3">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="O29" s="5">
         <f t="shared" si="0"/>
-        <v>3.5640751287749461E-2</v>
-      </c>
-      <c r="N29" s="3">
+        <v>4.0097083958728792</v>
+      </c>
+      <c r="P29" s="7">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q29">
         <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="O29" s="5">
-        <f>435*L29/SUM($L$2:$L$51)</f>
-        <v>4.0097083958728792</v>
-      </c>
-      <c r="P29" s="7">
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="R29" t="b">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
-      <c r="Q29">
-        <f>SQRT(P29*(P29+1))</f>
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="R29" t="b">
-        <f>O29&gt;Q29</f>
+      <c r="T29" s="7">
+        <f t="shared" si="4"/>
+        <v>9.7083958728791941E-3</v>
+      </c>
+      <c r="U29" s="8">
+        <f t="shared" si="8"/>
+        <v>755796.10804597696</v>
+      </c>
+      <c r="V29" s="8" t="b">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S29">
-        <f>IF(R29,P29+1,P29)</f>
+      <c r="W29" s="8">
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="T29" s="7">
-        <f>O29-S29</f>
-        <v>9.7083958728791941E-3</v>
-      </c>
-      <c r="U29" s="8">
-        <f t="shared" si="3"/>
-        <v>755796.10804597696</v>
-      </c>
-      <c r="V29" s="8" t="b">
-        <f t="shared" si="4"/>
+      <c r="X29" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="Y29" s="8">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AE29" s="6" t="b">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W29" s="8">
-        <f t="shared" si="5"/>
+      <c r="AF29" s="8">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="X29" s="8">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="Y29" s="8">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AE29" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF29" s="8">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
       <c r="AI29" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>757630.5</v>
       </c>
     </row>
@@ -3923,67 +3923,67 @@
         <v>6055802</v>
       </c>
       <c r="M30" s="3">
+        <f t="shared" si="5"/>
+        <v>4.5919906789875897E-2</v>
+      </c>
+      <c r="N30" s="3">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="O30" s="5">
         <f t="shared" si="0"/>
-        <v>4.5919906789875897E-2</v>
-      </c>
-      <c r="N30" s="3">
+        <v>8.0124810587561406</v>
+      </c>
+      <c r="P30" s="7">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="Q30">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="O30" s="5">
-        <f>435*L30/SUM($L$2:$L$51)</f>
-        <v>8.0124810587561406</v>
-      </c>
-      <c r="P30" s="7">
+        <v>8.4852813742385695</v>
+      </c>
+      <c r="R30" t="b">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-      <c r="Q30">
-        <f>SQRT(P30*(P30+1))</f>
-        <v>8.4852813742385695</v>
-      </c>
-      <c r="R30" t="b">
-        <f>O30&gt;Q30</f>
+      <c r="T30" s="7">
+        <f t="shared" si="4"/>
+        <v>1.2481058756140584E-2</v>
+      </c>
+      <c r="U30" s="8">
+        <f t="shared" si="8"/>
+        <v>755796.10804597696</v>
+      </c>
+      <c r="V30" s="8" t="b">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S30">
-        <f>IF(R30,P30+1,P30)</f>
+      <c r="W30" s="8">
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
-      <c r="T30" s="7">
-        <f>O30-S30</f>
-        <v>1.2481058756140584E-2</v>
-      </c>
-      <c r="U30" s="8">
-        <f t="shared" si="3"/>
-        <v>755796.10804597696</v>
-      </c>
-      <c r="V30" s="8" t="b">
-        <f t="shared" si="4"/>
+      <c r="X30" s="8">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="Y30" s="8">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AE30" s="6" t="b">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W30" s="8">
-        <f t="shared" si="5"/>
+      <c r="AF30" s="8">
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="X30" s="8">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="Y30" s="8">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="AE30" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF30" s="8">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
       <c r="AI30" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>756975.25</v>
       </c>
     </row>
@@ -4025,67 +4025,67 @@
         <v>765309</v>
       </c>
       <c r="M31" s="3">
+        <f t="shared" si="5"/>
+        <v>0.132273026534794</v>
+      </c>
+      <c r="N31" s="3">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="O31" s="5">
         <f t="shared" si="0"/>
-        <v>0.132273026534794</v>
-      </c>
-      <c r="N31" s="3">
+        <v>1.0125865849966038</v>
+      </c>
+      <c r="P31" s="7">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q31">
         <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="O31" s="5">
-        <f>435*L31/SUM($L$2:$L$51)</f>
-        <v>1.0125865849966038</v>
-      </c>
-      <c r="P31" s="7">
+        <v>1.4142135623730951</v>
+      </c>
+      <c r="R31" t="b">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Q31">
-        <f>SQRT(P31*(P31+1))</f>
-        <v>1.4142135623730951</v>
-      </c>
-      <c r="R31" t="b">
-        <f>O31&gt;Q31</f>
         <v>0</v>
       </c>
       <c r="S31">
-        <f>IF(R31,P31+1,P31)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="T31" s="7">
-        <f>O31-S31</f>
+        <f t="shared" si="4"/>
         <v>1.2586584996603811E-2</v>
       </c>
       <c r="U31" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V31" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W31" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X31" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Y31" s="8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AE31" s="6" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="Y31" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AE31" s="6" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF31" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AI31" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>765309</v>
       </c>
     </row>
@@ -4127,67 +4127,67 @@
         <v>10600823</v>
       </c>
       <c r="M32" s="3">
+        <f t="shared" si="5"/>
+        <v>0.10820256077365764</v>
+      </c>
+      <c r="N32" s="3">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="O32" s="5">
         <f t="shared" si="0"/>
-        <v>0.10820256077365764</v>
-      </c>
-      <c r="N32" s="3">
+        <v>14.026035444145373</v>
+      </c>
+      <c r="P32" s="7">
+        <f t="shared" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="Q32">
         <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="O32" s="5">
-        <f>435*L32/SUM($L$2:$L$51)</f>
-        <v>14.026035444145373</v>
-      </c>
-      <c r="P32" s="7">
+        <v>14.491376746189438</v>
+      </c>
+      <c r="R32" t="b">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
-      <c r="Q32">
-        <f>SQRT(P32*(P32+1))</f>
-        <v>14.491376746189438</v>
-      </c>
-      <c r="R32" t="b">
-        <f>O32&gt;Q32</f>
+      <c r="T32" s="7">
+        <f t="shared" si="4"/>
+        <v>2.6035444145373177E-2</v>
+      </c>
+      <c r="U32" s="8">
+        <f t="shared" si="8"/>
+        <v>755796.10804597696</v>
+      </c>
+      <c r="V32" s="8" t="b">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S32">
-        <f>IF(R32,P32+1,P32)</f>
+      <c r="W32" s="8">
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
-      <c r="T32" s="7">
-        <f>O32-S32</f>
-        <v>2.6035444145373177E-2</v>
-      </c>
-      <c r="U32" s="8">
-        <f t="shared" si="3"/>
-        <v>755796.10804597696</v>
-      </c>
-      <c r="V32" s="8" t="b">
-        <f t="shared" si="4"/>
+      <c r="X32" s="8">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="Y32" s="8">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="AE32" s="6" t="b">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W32" s="8">
-        <f t="shared" si="5"/>
+      <c r="AF32" s="8">
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="X32" s="8">
-        <f t="shared" si="12"/>
-        <v>14</v>
-      </c>
-      <c r="Y32" s="8">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="AE32" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF32" s="8">
-        <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
       <c r="AI32" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>757201.64285714284</v>
       </c>
     </row>
@@ -4229,67 +4229,67 @@
         <v>39368078</v>
       </c>
       <c r="M33" s="3">
+        <f t="shared" si="5"/>
+        <v>5.425766152949163E-2</v>
+      </c>
+      <c r="N33" s="3">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="O33" s="5">
         <f t="shared" si="0"/>
-        <v>5.425766152949163E-2</v>
-      </c>
-      <c r="N33" s="3">
+        <v>52.088225357208557</v>
+      </c>
+      <c r="P33" s="7">
+        <f t="shared" si="7"/>
+        <v>52</v>
+      </c>
+      <c r="Q33">
         <f t="shared" si="1"/>
-        <v>22</v>
-      </c>
-      <c r="O33" s="5">
-        <f>435*L33/SUM($L$2:$L$51)</f>
-        <v>52.088225357208557</v>
-      </c>
-      <c r="P33" s="7">
+        <v>52.497618993626752</v>
+      </c>
+      <c r="R33" t="b">
         <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <f t="shared" si="3"/>
         <v>52</v>
       </c>
-      <c r="Q33">
-        <f>SQRT(P33*(P33+1))</f>
-        <v>52.497618993626752</v>
-      </c>
-      <c r="R33" t="b">
-        <f>O33&gt;Q33</f>
+      <c r="T33" s="7">
+        <f t="shared" si="4"/>
+        <v>8.8225357208557398E-2</v>
+      </c>
+      <c r="U33" s="8">
+        <f t="shared" si="8"/>
+        <v>755796.10804597696</v>
+      </c>
+      <c r="V33" s="8" t="b">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="S33">
-        <f>IF(R33,P33+1,P33)</f>
+      <c r="W33" s="8">
+        <f t="shared" si="10"/>
         <v>52</v>
       </c>
-      <c r="T33" s="7">
-        <f>O33-S33</f>
-        <v>8.8225357208557398E-2</v>
-      </c>
-      <c r="U33" s="8">
-        <f t="shared" si="3"/>
-        <v>755796.10804597696</v>
-      </c>
-      <c r="V33" s="8" t="b">
-        <f t="shared" si="4"/>
+      <c r="X33" s="8">
+        <f t="shared" si="18"/>
+        <v>52</v>
+      </c>
+      <c r="Y33" s="8">
+        <f t="shared" si="11"/>
+        <v>52</v>
+      </c>
+      <c r="AE33" s="6" t="b">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="W33" s="8">
-        <f t="shared" si="5"/>
+      <c r="AF33" s="8">
+        <f t="shared" si="13"/>
         <v>52</v>
       </c>
-      <c r="X33" s="8">
-        <f t="shared" si="12"/>
-        <v>52</v>
-      </c>
-      <c r="Y33" s="8">
-        <f t="shared" si="6"/>
-        <v>52</v>
-      </c>
-      <c r="AE33" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF33" s="8">
-        <f t="shared" si="8"/>
-        <v>52</v>
-      </c>
       <c r="AI33" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>757078.42307692312</v>
       </c>
     </row>
@@ -4331,67 +4331,67 @@
         <v>6886834</v>
       </c>
       <c r="M34" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8.0214655291540371E-2</v>
       </c>
       <c r="N34" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>17</v>
       </c>
       <c r="O34" s="5">
-        <f>435*L34/SUM($L$2:$L$51)</f>
+        <f t="shared" ref="O34:O51" si="19">435*L34/SUM($L$2:$L$51)</f>
         <v>9.1120262815392223</v>
       </c>
       <c r="P34" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="Q34">
-        <f>SQRT(P34*(P34+1))</f>
+        <f t="shared" ref="Q34:Q65" si="20">SQRT(P34*(P34+1))</f>
         <v>9.4868329805051381</v>
       </c>
       <c r="R34" t="b">
-        <f>O34&gt;Q34</f>
+        <f t="shared" ref="R34:R65" si="21">O34&gt;Q34</f>
         <v>0</v>
       </c>
       <c r="S34">
-        <f>IF(R34,P34+1,P34)</f>
+        <f t="shared" ref="S34:S65" si="22">IF(R34,P34+1,P34)</f>
         <v>9</v>
       </c>
       <c r="T34" s="7">
-        <f>O34-S34</f>
+        <f t="shared" ref="T34:T65" si="23">O34-S34</f>
         <v>0.11202628153922234</v>
       </c>
       <c r="U34" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V34" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W34" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="X34" s="8">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="Y34" s="8">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AE34" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF34" s="8">
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="Y34" s="8">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="AE34" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF34" s="8">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
       <c r="AI34" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>765203.77777777775</v>
       </c>
     </row>
@@ -4433,67 +4433,67 @@
         <v>6893574</v>
       </c>
       <c r="M35" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>5.0906726035742089E-2</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>23</v>
       </c>
       <c r="O35" s="5">
-        <f>435*L35/SUM($L$2:$L$51)</f>
+        <f t="shared" si="19"/>
         <v>9.1209440305567782</v>
       </c>
       <c r="P35" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="Q35">
-        <f>SQRT(P35*(P35+1))</f>
+        <f t="shared" si="20"/>
         <v>9.4868329805051381</v>
       </c>
       <c r="R35" t="b">
-        <f>O35&gt;Q35</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S35">
-        <f>IF(R35,P35+1,P35)</f>
+        <f t="shared" si="22"/>
         <v>9</v>
       </c>
       <c r="T35" s="7">
-        <f>O35-S35</f>
+        <f t="shared" si="23"/>
         <v>0.12094403055677816</v>
       </c>
       <c r="U35" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V35" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W35" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="X35" s="8">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="Y35" s="8">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AE35" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF35" s="8">
+        <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="Y35" s="8">
-        <f t="shared" si="6"/>
-        <v>9</v>
-      </c>
-      <c r="AE35" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF35" s="8">
-        <f t="shared" si="8"/>
-        <v>9</v>
-      </c>
       <c r="AI35" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>765952.66666666663</v>
       </c>
     </row>
@@ -4535,67 +4535,67 @@
         <v>6151548</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.3300426284517783E-2</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>34</v>
       </c>
       <c r="O36" s="5">
-        <f>435*L36/SUM($L$2:$L$51)</f>
+        <f t="shared" si="19"/>
         <v>8.139163372915629</v>
       </c>
       <c r="P36" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
       <c r="Q36">
-        <f>SQRT(P36*(P36+1))</f>
+        <f t="shared" si="20"/>
         <v>8.4852813742385695</v>
       </c>
       <c r="R36" t="b">
-        <f>O36&gt;Q36</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S36">
-        <f>IF(R36,P36+1,P36)</f>
+        <f t="shared" si="22"/>
         <v>8</v>
       </c>
       <c r="T36" s="7">
-        <f>O36-S36</f>
+        <f t="shared" si="23"/>
         <v>0.13916337291562897</v>
       </c>
       <c r="U36" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V36" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W36" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="X36" s="8">
+        <f t="shared" si="18"/>
+        <v>8</v>
+      </c>
+      <c r="Y36" s="8">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AE36" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="8">
+        <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="Y36" s="8">
-        <f t="shared" si="6"/>
-        <v>8</v>
-      </c>
-      <c r="AE36" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF36" s="8">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
       <c r="AI36" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>768943.5</v>
       </c>
     </row>
@@ -4637,67 +4637,67 @@
         <v>4645318</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2.0060773453972613E-2</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>35</v>
       </c>
       <c r="O37" s="5">
-        <f>435*L37/SUM($L$2:$L$51)</f>
+        <f t="shared" si="19"/>
         <v>6.1462581647978176</v>
       </c>
       <c r="P37" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>6</v>
       </c>
       <c r="Q37">
-        <f>SQRT(P37*(P37+1))</f>
+        <f t="shared" si="20"/>
         <v>6.4807406984078604</v>
       </c>
       <c r="R37" t="b">
-        <f>O37&gt;Q37</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S37">
-        <f>IF(R37,P37+1,P37)</f>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="T37" s="7">
-        <f>O37-S37</f>
+        <f t="shared" si="23"/>
         <v>0.14625816479781761</v>
       </c>
       <c r="U37" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V37" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W37" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="X37" s="8">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="Y37" s="8">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AE37" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="8">
+        <f t="shared" si="13"/>
         <v>6</v>
       </c>
-      <c r="Y37" s="8">
-        <f t="shared" si="6"/>
-        <v>6</v>
-      </c>
-      <c r="AE37" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF37" s="8">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
       <c r="AI37" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>774219.66666666663</v>
       </c>
     </row>
@@ -4739,67 +4739,67 @@
         <v>3138259</v>
       </c>
       <c r="M38" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.15827191824707176</v>
       </c>
       <c r="N38" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="O38" s="5">
-        <f>435*L38/SUM($L$2:$L$51)</f>
-        <v>4.1522561000130098</v>
-      </c>
-      <c r="P38" s="7">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="Q38">
-        <f>SQRT(P38*(P38+1))</f>
-        <v>4.4721359549995796</v>
-      </c>
-      <c r="R38" t="b">
-        <f>O38&gt;Q38</f>
-        <v>0</v>
-      </c>
-      <c r="S38">
-        <f>IF(R38,P38+1,P38)</f>
-        <v>4</v>
-      </c>
-      <c r="T38" s="7">
-        <f>O38-S38</f>
-        <v>0.15225610001300982</v>
-      </c>
-      <c r="U38" s="8">
-        <f t="shared" si="3"/>
-        <v>755796.10804597696</v>
-      </c>
-      <c r="V38" s="8" t="b">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="8">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="X38" s="8">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="Y38" s="8">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
+      <c r="O38" s="5">
+        <f t="shared" si="19"/>
+        <v>4.1522561000130098</v>
+      </c>
+      <c r="P38" s="7">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="20"/>
+        <v>4.4721359549995796</v>
+      </c>
+      <c r="R38" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S38">
+        <f t="shared" si="22"/>
+        <v>4</v>
+      </c>
+      <c r="T38" s="7">
+        <f t="shared" si="23"/>
+        <v>0.15225610001300982</v>
+      </c>
+      <c r="U38" s="8">
+        <f t="shared" si="8"/>
+        <v>755796.10804597696</v>
+      </c>
+      <c r="V38" s="8" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="8">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="X38" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="Y38" s="8">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
       <c r="AE38" s="6" t="b">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF38" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
       <c r="AI38" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>784564.75</v>
       </c>
     </row>
@@ -4841,67 +4841,67 @@
         <v>10710017</v>
       </c>
       <c r="M39" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.10099659051400933</v>
       </c>
       <c r="N39" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>13</v>
       </c>
       <c r="O39" s="5">
-        <f>435*L39/SUM($L$2:$L$51)</f>
+        <f t="shared" si="19"/>
         <v>14.170510916878765</v>
       </c>
       <c r="P39" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>14</v>
       </c>
       <c r="Q39">
-        <f>SQRT(P39*(P39+1))</f>
+        <f t="shared" si="20"/>
         <v>14.491376746189438</v>
       </c>
       <c r="R39" t="b">
-        <f>O39&gt;Q39</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S39">
-        <f>IF(R39,P39+1,P39)</f>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="T39" s="7">
-        <f>O39-S39</f>
+        <f t="shared" si="23"/>
         <v>0.17051091687876507</v>
       </c>
       <c r="U39" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V39" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W39" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>14</v>
       </c>
       <c r="X39" s="8">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="Y39" s="8">
+        <f t="shared" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="AE39" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF39" s="8">
+        <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="Y39" s="8">
-        <f t="shared" si="6"/>
-        <v>14</v>
-      </c>
-      <c r="AE39" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF39" s="8">
-        <f t="shared" si="8"/>
-        <v>14</v>
-      </c>
       <c r="AI39" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>765001.21428571432</v>
       </c>
     </row>
@@ -4943,67 +4943,67 @@
         <v>7693612</v>
       </c>
       <c r="M40" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.13922577013043425</v>
       </c>
       <c r="N40" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="O40" s="5">
-        <f>435*L40/SUM($L$2:$L$51)</f>
+        <f t="shared" si="19"/>
         <v>10.179480838940728</v>
       </c>
       <c r="P40" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="Q40">
-        <f>SQRT(P40*(P40+1))</f>
+        <f t="shared" si="20"/>
         <v>10.488088481701515</v>
       </c>
       <c r="R40" t="b">
-        <f>O40&gt;Q40</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S40">
-        <f>IF(R40,P40+1,P40)</f>
+        <f t="shared" si="22"/>
         <v>10</v>
       </c>
       <c r="T40" s="7">
-        <f>O40-S40</f>
+        <f t="shared" si="23"/>
         <v>0.1794808389407283</v>
       </c>
       <c r="U40" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V40" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W40" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>10</v>
       </c>
       <c r="X40" s="8">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="Y40" s="8">
+        <f t="shared" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="AE40" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF40" s="8">
+        <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="Y40" s="8">
-        <f t="shared" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="AE40" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF40" s="8">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
       <c r="AI40" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>769361.2</v>
       </c>
     </row>
@@ -5045,67 +5045,67 @@
         <v>892717</v>
       </c>
       <c r="M41" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>8.8996670980932224E-2</v>
       </c>
       <c r="N41" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>15</v>
       </c>
       <c r="O41" s="5">
-        <f>435*L41/SUM($L$2:$L$51)</f>
+        <f t="shared" si="19"/>
         <v>1.1811611498080032</v>
       </c>
       <c r="P41" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q41">
-        <f>SQRT(P41*(P41+1))</f>
+        <f t="shared" si="20"/>
         <v>1.4142135623730951</v>
       </c>
       <c r="R41" t="b">
-        <f>O41&gt;Q41</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S41">
-        <f>IF(R41,P41+1,P41)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="T41" s="7">
-        <f>O41-S41</f>
+        <f t="shared" si="23"/>
         <v>0.18116114980800324</v>
       </c>
       <c r="U41" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V41" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W41" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X41" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Y41" s="8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AE41" s="6" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="Y41" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AE41" s="6" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF41" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AI41" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>892717</v>
       </c>
     </row>
@@ -5147,67 +5147,67 @@
         <v>3163561</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3.5946842396015199E-2</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>26</v>
       </c>
       <c r="O42" s="5">
-        <f>435*L42/SUM($L$2:$L$51)</f>
+        <f t="shared" si="19"/>
         <v>4.1857333827492438</v>
       </c>
       <c r="P42" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="Q42">
-        <f>SQRT(P42*(P42+1))</f>
+        <f t="shared" si="20"/>
         <v>4.4721359549995796</v>
       </c>
       <c r="R42" t="b">
-        <f>O42&gt;Q42</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S42">
-        <f>IF(R42,P42+1,P42)</f>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="T42" s="7">
-        <f>O42-S42</f>
+        <f t="shared" si="23"/>
         <v>0.18573338274924378</v>
       </c>
       <c r="U42" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V42" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W42" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="X42" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="Y42" s="8">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AE42" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF42" s="8">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="Y42" s="8">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AE42" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF42" s="8">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
       <c r="AI42" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>790890.25</v>
       </c>
     </row>
@@ -5249,67 +5249,67 @@
         <v>9966555</v>
       </c>
       <c r="M43" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>5.5418757729559509E-3</v>
       </c>
       <c r="N43" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>42</v>
       </c>
       <c r="O43" s="5">
-        <f>435*L43/SUM($L$2:$L$51)</f>
+        <f t="shared" si="19"/>
         <v>13.186830275915774</v>
       </c>
       <c r="P43" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>13</v>
       </c>
       <c r="Q43">
-        <f>SQRT(P43*(P43+1))</f>
+        <f t="shared" si="20"/>
         <v>13.490737563232042</v>
       </c>
       <c r="R43" t="b">
-        <f>O43&gt;Q43</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S43">
-        <f>IF(R43,P43+1,P43)</f>
+        <f t="shared" si="22"/>
         <v>13</v>
       </c>
       <c r="T43" s="7">
-        <f>O43-S43</f>
+        <f t="shared" si="23"/>
         <v>0.18683027591577428</v>
       </c>
       <c r="U43" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V43" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W43" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>13</v>
       </c>
       <c r="X43" s="8">
+        <f t="shared" si="18"/>
+        <v>13</v>
+      </c>
+      <c r="Y43" s="8">
+        <f t="shared" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="AE43" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF43" s="8">
+        <f t="shared" si="13"/>
         <v>13</v>
       </c>
-      <c r="Y43" s="8">
-        <f t="shared" si="6"/>
-        <v>13</v>
-      </c>
-      <c r="AE43" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF43" s="8">
-        <f t="shared" si="8"/>
-        <v>13</v>
-      </c>
       <c r="AI43" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>766658.07692307688</v>
       </c>
     </row>
@@ -5351,67 +5351,67 @@
         <v>3980783</v>
       </c>
       <c r="M44" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>5.7346020406482845E-2</v>
       </c>
       <c r="N44" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="O44" s="5">
-        <f>435*L44/SUM($L$2:$L$51)</f>
+        <f t="shared" si="19"/>
         <v>5.2670064818034747</v>
       </c>
       <c r="P44" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="Q44">
-        <f>SQRT(P44*(P44+1))</f>
+        <f t="shared" si="20"/>
         <v>5.4772255750516612</v>
       </c>
       <c r="R44" t="b">
-        <f>O44&gt;Q44</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S44">
-        <f>IF(R44,P44+1,P44)</f>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="T44" s="7">
-        <f>O44-S44</f>
+        <f t="shared" si="23"/>
         <v>0.26700648180347475</v>
       </c>
       <c r="U44" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V44" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W44" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="X44" s="8">
+        <f t="shared" si="18"/>
+        <v>5</v>
+      </c>
+      <c r="Y44" s="8">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AE44" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF44" s="8">
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
-      <c r="Y44" s="8">
-        <f t="shared" si="6"/>
-        <v>5</v>
-      </c>
-      <c r="AE44" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF44" s="8">
-        <f t="shared" si="8"/>
-        <v>5</v>
-      </c>
       <c r="AI44" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>796156.6</v>
       </c>
     </row>
@@ -5453,67 +5453,67 @@
         <v>3249879</v>
       </c>
       <c r="M45" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.17291758774201349</v>
       </c>
       <c r="N45" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="O45" s="5">
-        <f>435*L45/SUM($L$2:$L$51)</f>
+        <f t="shared" si="19"/>
         <v>4.2999414331494563</v>
       </c>
       <c r="P45" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="Q45">
-        <f>SQRT(P45*(P45+1))</f>
+        <f t="shared" si="20"/>
         <v>4.4721359549995796</v>
       </c>
       <c r="R45" t="b">
-        <f>O45&gt;Q45</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S45">
-        <f>IF(R45,P45+1,P45)</f>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="T45" s="7">
-        <f>O45-S45</f>
+        <f t="shared" si="23"/>
         <v>0.29994143314945632</v>
       </c>
       <c r="U45" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V45" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W45" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="X45" s="8">
+        <f t="shared" si="18"/>
+        <v>4</v>
+      </c>
+      <c r="Y45" s="8">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AE45" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF45" s="8">
+        <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="Y45" s="8">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="AE45" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF45" s="8">
-        <f t="shared" si="8"/>
-        <v>4</v>
-      </c>
       <c r="AI45" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>812469.75</v>
       </c>
     </row>
@@ -5555,67 +5555,67 @@
         <v>986809</v>
       </c>
       <c r="M46" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>9.5387050618452873E-2</v>
       </c>
       <c r="N46" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>14</v>
       </c>
       <c r="O46" s="5">
-        <f>435*L46/SUM($L$2:$L$51)</f>
+        <f t="shared" si="19"/>
         <v>1.3056550430661518</v>
       </c>
       <c r="P46" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q46">
-        <f>SQRT(P46*(P46+1))</f>
+        <f t="shared" si="20"/>
         <v>1.4142135623730951</v>
       </c>
       <c r="R46" t="b">
-        <f>O46&gt;Q46</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S46">
-        <f>IF(R46,P46+1,P46)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="T46" s="7">
-        <f>O46-S46</f>
+        <f t="shared" si="23"/>
         <v>0.30565504306615177</v>
       </c>
       <c r="U46" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V46" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W46" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X46" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Y46" s="8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AE46" s="6" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="Y46" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AE46" s="6" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF46" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AI46" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>986809</v>
       </c>
     </row>
@@ -5657,67 +5657,67 @@
         <v>1784787</v>
       </c>
       <c r="M47" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>-4.034164688423314E-2</v>
       </c>
       <c r="N47" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>50</v>
       </c>
       <c r="O47" s="5">
-        <f>435*L47/SUM($L$2:$L$51)</f>
+        <f t="shared" si="19"/>
         <v>2.3614662486346476</v>
       </c>
       <c r="P47" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="Q47">
-        <f>SQRT(P47*(P47+1))</f>
+        <f t="shared" si="20"/>
         <v>2.4494897427831779</v>
       </c>
       <c r="R47" t="b">
-        <f>O47&gt;Q47</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S47">
-        <f>IF(R47,P47+1,P47)</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="T47" s="7">
-        <f>O47-S47</f>
+        <f t="shared" si="23"/>
         <v>0.3614662486346476</v>
       </c>
       <c r="U47" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V47" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W47" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="X47" s="8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="Y47" s="8">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AE47" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF47" s="8">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="Y47" s="8">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AE47" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF47" s="8">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
       <c r="AI47" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>892393.5</v>
       </c>
     </row>
@@ -5759,67 +5759,67 @@
         <v>8590563</v>
       </c>
       <c r="M48" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>6.8778944717766244E-2</v>
       </c>
       <c r="N48" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>18</v>
       </c>
       <c r="O48" s="5">
-        <f>435*L48/SUM($L$2:$L$51)</f>
+        <f t="shared" si="19"/>
         <v>11.366244028710206</v>
       </c>
       <c r="P48" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>11</v>
       </c>
       <c r="Q48">
-        <f>SQRT(P48*(P48+1))</f>
+        <f t="shared" si="20"/>
         <v>11.489125293076057</v>
       </c>
       <c r="R48" t="b">
-        <f>O48&gt;Q48</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S48">
-        <f>IF(R48,P48+1,P48)</f>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="T48" s="7">
-        <f>O48-S48</f>
+        <f t="shared" si="23"/>
         <v>0.36624402871020578</v>
       </c>
       <c r="U48" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V48" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W48" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>11</v>
       </c>
       <c r="X48" s="8">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="Y48" s="8">
+        <f t="shared" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="AE48" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF48" s="8">
+        <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="Y48" s="8">
-        <f t="shared" si="6"/>
-        <v>11</v>
-      </c>
-      <c r="AE48" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF48" s="8">
-        <f t="shared" si="8"/>
-        <v>11</v>
-      </c>
       <c r="AI48" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>780960.27272727271</v>
       </c>
     </row>
@@ -5861,67 +5861,67 @@
         <v>1057125</v>
       </c>
       <c r="M49" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.7796781227523706E-3</v>
       </c>
       <c r="N49" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>44</v>
       </c>
       <c r="O49" s="5">
-        <f>435*L49/SUM($L$2:$L$51)</f>
+        <f t="shared" si="19"/>
         <v>1.3986907166445641</v>
       </c>
       <c r="P49" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="Q49">
-        <f>SQRT(P49*(P49+1))</f>
+        <f t="shared" si="20"/>
         <v>1.4142135623730951</v>
       </c>
       <c r="R49" t="b">
-        <f>O49&gt;Q49</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S49">
-        <f>IF(R49,P49+1,P49)</f>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="T49" s="7">
-        <f>O49-S49</f>
+        <f t="shared" si="23"/>
         <v>0.39869071664456412</v>
       </c>
       <c r="U49" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V49" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W49" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="X49" s="8">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="Y49" s="8">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="AE49" s="6" t="b">
         <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
-      <c r="Y49" s="8">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="AE49" s="6" t="b">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF49" s="8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AI49" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>1057125</v>
       </c>
     </row>
@@ -5963,67 +5963,67 @@
         <v>1826913</v>
       </c>
       <c r="M50" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0.16105126218701127</v>
       </c>
       <c r="N50" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="O50" s="5">
-        <f>435*L50/SUM($L$2:$L$51)</f>
+        <f t="shared" si="19"/>
         <v>2.4172035031025381</v>
       </c>
       <c r="P50" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="Q50">
-        <f>SQRT(P50*(P50+1))</f>
+        <f t="shared" si="20"/>
         <v>2.4494897427831779</v>
       </c>
       <c r="R50" t="b">
-        <f>O50&gt;Q50</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S50">
-        <f>IF(R50,P50+1,P50)</f>
+        <f t="shared" si="22"/>
         <v>2</v>
       </c>
       <c r="T50" s="7">
-        <f>O50-S50</f>
+        <f t="shared" si="23"/>
         <v>0.41720350310253806</v>
       </c>
       <c r="U50" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V50" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W50" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="X50" s="8">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="Y50" s="8">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AE50" s="6" t="b">
         <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF50" s="8">
+        <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="Y50" s="8">
-        <f t="shared" si="6"/>
-        <v>2</v>
-      </c>
-      <c r="AE50" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF50" s="8">
-        <f t="shared" si="8"/>
-        <v>2</v>
-      </c>
       <c r="AI50" s="9">
-        <f t="shared" si="9"/>
+        <f t="shared" si="14"/>
         <v>913456.5</v>
       </c>
     </row>
@@ -6065,78 +6065,122 @@
         <v>11693217</v>
       </c>
       <c r="M51" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1.0781177672635867E-2</v>
       </c>
       <c r="N51" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="O51" s="5">
-        <f>435*L51/SUM($L$2:$L$51)</f>
+        <f t="shared" si="19"/>
         <v>15.471390862585219</v>
       </c>
       <c r="P51" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>15</v>
       </c>
       <c r="Q51">
-        <f>SQRT(P51*(P51+1))</f>
+        <f t="shared" si="20"/>
         <v>15.491933384829668</v>
       </c>
       <c r="R51" t="b">
-        <f>O51&gt;Q51</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="S51">
-        <f>IF(R51,P51+1,P51)</f>
+        <f t="shared" si="22"/>
         <v>15</v>
       </c>
       <c r="T51" s="7">
-        <f>O51-S51</f>
+        <f t="shared" si="23"/>
         <v>0.47139086258521878</v>
       </c>
       <c r="U51" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>755796.10804597696</v>
       </c>
       <c r="V51" s="8" t="b">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W51" s="8">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="X51" s="8">
+        <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+      <c r="Y51" s="8">
+        <f t="shared" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="AE51" s="6" t="b">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF51" s="8">
+        <f t="shared" si="13"/>
+        <v>15</v>
+      </c>
+      <c r="AI51" s="9">
+        <f t="shared" si="14"/>
+        <v>779547.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <f>SUM(B2:B51)</f>
+        <v>105273049</v>
+      </c>
+      <c r="C52">
+        <f t="shared" ref="C52:L52" si="24">SUM(C2:C51)</f>
+        <v>122288177</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="24"/>
+        <v>131006184</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="24"/>
+        <v>149895183</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="24"/>
+        <v>178559219</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="24"/>
+        <v>204002799</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="24"/>
+        <v>225867074</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="24"/>
+        <v>249022783</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="24"/>
+        <v>281424177</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="24"/>
+        <v>309183463</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="24"/>
+        <v>328771307</v>
+      </c>
+      <c r="M52" s="3">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="X51" s="8">
-        <f t="shared" si="12"/>
-        <v>15</v>
-      </c>
-      <c r="Y51" s="8">
+        <v>6.3353465964639977E-2</v>
+      </c>
+      <c r="N52" s="3" t="e">
         <f t="shared" si="6"/>
-        <v>15</v>
-      </c>
-      <c r="AE51" s="6" t="b">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AF51" s="8">
-        <f t="shared" si="8"/>
-        <v>15</v>
-      </c>
-      <c r="AI51" s="9">
-        <f t="shared" si="9"/>
-        <v>779547.8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="M52" s="3" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N52" s="3" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>#N/A</v>
       </c>
       <c r="S52">
         <f>SUM(S2:S51)</f>
@@ -6169,35 +6213,35 @@
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.2">
       <c r="M53" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N53" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W53" s="8" t="s">
         <v>80</v>
       </c>
       <c r="Y53" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.2">
       <c r="M54" s="3" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
       <c r="N54" s="3" t="e">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W54" s="8" t="s">
         <v>81</v>
       </c>
       <c r="Y54" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -11297,7 +11341,7 @@
         <v>21.413002443972196</v>
       </c>
       <c r="H11">
-        <f t="shared" ref="H9:H11" si="4">ROUND(G11,0)</f>
+        <f t="shared" ref="H11" si="4">ROUND(G11,0)</f>
         <v>21</v>
       </c>
     </row>
